--- a/biology/Biologie cellulaire et moléculaire/Hémotaphonomie/Hémotaphonomie.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/Hémotaphonomie/Hémotaphonomie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>H%C3%A9motaphonomie</t>
+          <t>Hémotaphonomie</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L’hémotaphonomie (du grec haima pour sang, taphos pour enterrement, et nomos pour loi) est la science qui traite de la morphologie des cellules sanguines dans des taches de sang. Ce terme a été proposé en 1992 par le biologiste catalan Policarp Hortolà[1],[2], inspiré par le mot «taphonomie» introduit en paléontologie en 1940 par Ivan Efremov[3].
-Parce que l'objet d'étude de l’hémotaphonomie est la cytomorphologie des cellules du sang sous la forme de tache, leurs sujets d'étude sont tout spécimen taché de sang. Le procédé de l'étude de l’hémotaphonomie est d'analyser les images de clair-obscur obtenues par microscopie électronique à balayage. Récemment, il a été suggéré que la microscopie confocale pourrait être une alternative pratique à la microscopie électronique à balayage lorsqu'un niveau de détail très élevé de la surface des taches de sang n'est pas requis[4]. Bien avant l'apparition du premier microscope électronique à balayage commercial au milieu du vingtième siècle, la détermination microscopique des taches de sang a été réalisée sporadiquement comme une aide à la science médico-légale, considérant le médecin et chimiste minorquin Mateu Josep Bonaventura Orfila comme le premier à essayer l'utilisation d'un microscope optique à de telles fins[5]. Au-delà du point de vue de la science pure, de l’hémotaphonomie appliquée vise l'utilisation des taches de sang comme preuve de la criminalistique et de l'archéologie[6],[7]. Il a également été utilisé pour l'étude de supposés résidus de sang dans des fragments de manuscrits médiévaux[8] et sur le Suaire de Turin[9]. L'hémotaphonomie ne doit pas être confondue avec l'analyse du profil des taches de sang (bloodstain pattern analysis).
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L’hémotaphonomie (du grec haima pour sang, taphos pour enterrement, et nomos pour loi) est la science qui traite de la morphologie des cellules sanguines dans des taches de sang. Ce terme a été proposé en 1992 par le biologiste catalan Policarp Hortolà inspiré par le mot «taphonomie» introduit en paléontologie en 1940 par Ivan Efremov.
+Parce que l'objet d'étude de l’hémotaphonomie est la cytomorphologie des cellules du sang sous la forme de tache, leurs sujets d'étude sont tout spécimen taché de sang. Le procédé de l'étude de l’hémotaphonomie est d'analyser les images de clair-obscur obtenues par microscopie électronique à balayage. Récemment, il a été suggéré que la microscopie confocale pourrait être une alternative pratique à la microscopie électronique à balayage lorsqu'un niveau de détail très élevé de la surface des taches de sang n'est pas requis. Bien avant l'apparition du premier microscope électronique à balayage commercial au milieu du vingtième siècle, la détermination microscopique des taches de sang a été réalisée sporadiquement comme une aide à la science médico-légale, considérant le médecin et chimiste minorquin Mateu Josep Bonaventura Orfila comme le premier à essayer l'utilisation d'un microscope optique à de telles fins. Au-delà du point de vue de la science pure, de l’hémotaphonomie appliquée vise l'utilisation des taches de sang comme preuve de la criminalistique et de l'archéologie,. Il a également été utilisé pour l'étude de supposés résidus de sang dans des fragments de manuscrits médiévaux et sur le Suaire de Turin. L'hémotaphonomie ne doit pas être confondue avec l'analyse du profil des taches de sang (bloodstain pattern analysis).
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>H%C3%A9motaphonomie</t>
+          <t>Hémotaphonomie</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,12 +524,14 @@
           <t>Sang des vertébrés et morphologie des globules rouges de mammifère dans le corps et dans les taches</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Le sang des vertébrés est une suspension de cellules dans un milieu liquide (plasma). Dans ce tissu histologique, trois types de cellules sont présentes: les érythrocytes (globules rouges), les leucocytes (globules blancs) et les thrombocytes (plaquettes, chez les mammifères).
-Contrairement à d'autres vertébrés, les globules rouges des mammifères ont énucléé (acaryocytes). Comme une exception chez les autres vertébrés, les salamandres de la famille Plethodontidae ont un rapport de globules rouges énucléés, avec l'espèce Batrachoseps attenuatus posséder près de 95% acaryocytes[10]. Également, le poisson téléostéen Maurolicus muelleri a érythrocytes énucléés[11].
+Contrairement à d'autres vertébrés, les globules rouges des mammifères ont énucléé (acaryocytes). Comme une exception chez les autres vertébrés, les salamandres de la famille Plethodontidae ont un rapport de globules rouges énucléés, avec l'espèce Batrachoseps attenuatus posséder près de 95% acaryocytes. Également, le poisson téléostéen Maurolicus muelleri a érythrocytes énucléés.
 En raison de l'absence de noyau, les érythrocytes de mammifère typiques ont une forme de disque biconcave (discocytes). Cela ne s'applique pas à la famille Camelidae, où les globules rouges sont ovales (ovalocytes). D'autres formes physiologiques — qui apparaissent dans une petite proportion ou sont pathologiques — sont les échinocytes (cellules comme le fruit de la stramoine), les dacryocytes (cellules en forme de larme), les schizocytes (cellules cassées), les kératocytes (cellules comme une corne), les drépanocytes (cellules en forme de faucille), et bien d'autres.
-Deux morphologies des érythrocytes sont dues aux phénomènes de sang séché, de sorte que ceux-ci peuvent être considérées caractéristiques des taches de sang des (au moins) mammifères, et ne sont donc pas dans des conditions physiologiques. Ces deux formes sont[12] :
+Deux morphologies des érythrocytes sont dues aux phénomènes de sang séché, de sorte que ceux-ci peuvent être considérées caractéristiques des taches de sang des (au moins) mammifères, et ne sont donc pas dans des conditions physiologiques. Ces deux formes sont :
 les hécatocytes (formes lunaires ou moon-like shapes, liés à l'interaction plasma-érythrocyte à l'état sec; étymologiquement d'Hecate).
 les janocytes (répliques négatives ou negative replicas, liés à l'impression pour la matrice du plasma sec; étymologiquement de Janus).</t>
         </is>
